--- a/RegresionLineal.xlsx
+++ b/RegresionLineal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aldair\Documents\Universidad\Machine Learning\Training Final\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aldair\Documents\Universidad\Training Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4132E47C-1C86-4D64-A340-4DB2DBBD1D4B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C0C4B8-955A-4D8E-BF78-92D0D6E0F55D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{AB0BA8CB-C48D-445C-970E-0143445BF993}"/>
   </bookViews>
@@ -394,7 +394,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
